--- a/resources/data-imports/items-second-set.xlsx
+++ b/resources/data-imports/items-second-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2884E3F3-1B1E-0648-A9D9-B794A74C5CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5448366F-05A4-F547-B6C7-8A08B18EE9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="443">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -1293,9 +1293,6 @@
     <t>Satans Cage</t>
   </si>
   <si>
-    <t>Purgatories Latern</t>
-  </si>
-  <si>
     <t>Will let you into Purgatory, but this map will only show up while you are standing at Satan's Ascent, in Hell.</t>
   </si>
   <si>
@@ -1345,6 +1342,24 @@
   </si>
   <si>
     <t>Satan one wore a mask that was used to hide his identity while on the surface. Once the slayer of hell slew him he dropped his mask on the ground before turning to stone.</t>
+  </si>
+  <si>
+    <t>Golden Wand of Gold</t>
+  </si>
+  <si>
+    <t>Made from gold, shaped in the form of a wand, waving it about seems to extract large amounts of coin from all your kingdoms while standing on a kingdom you own. It's limited by plane, so you must switch planes to embezzle from that plane.</t>
+  </si>
+  <si>
+    <t>mass-embezzle</t>
+  </si>
+  <si>
+    <t>Goblins Jewels</t>
+  </si>
+  <si>
+    <t>These jewels look like they belong to some one, maybe there is an NPC looking for these</t>
+  </si>
+  <si>
+    <t>Purgatories Lantern</t>
   </si>
 </sst>
 </file>
@@ -1691,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD177"/>
+  <dimension ref="A1:BD179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD137"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9654,7 +9669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>294</v>
       </c>
@@ -9728,7 +9743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>296</v>
       </c>
@@ -9805,7 +9820,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="83" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>298</v>
       </c>
@@ -9897,27 +9912,21 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="84" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="E84" t="s">
         <v>301</v>
       </c>
       <c r="F84" t="s">
-        <v>302</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
+        <v>327</v>
+      </c>
+      <c r="X84" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -9967,19 +9976,16 @@
       <c r="BC84">
         <v>0</v>
       </c>
-      <c r="BD84" t="s">
-        <v>303</v>
-      </c>
     </row>
-    <row r="85" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="E85" t="s">
         <v>301</v>
       </c>
       <c r="F85" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -9987,11 +9993,11 @@
       <c r="M85">
         <v>0</v>
       </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
-      <c r="W85">
-        <v>0</v>
+      <c r="X85" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -10011,6 +10017,15 @@
       <c r="AO85">
         <v>0</v>
       </c>
+      <c r="AR85">
+        <v>0</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
       <c r="AW85">
         <v>0</v>
       </c>
@@ -10032,19 +10047,16 @@
       <c r="BC85">
         <v>0</v>
       </c>
-      <c r="BD85" t="s">
-        <v>306</v>
-      </c>
     </row>
-    <row r="86" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="E86" t="s">
         <v>301</v>
       </c>
       <c r="F86" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -10052,11 +10064,8 @@
       <c r="M86">
         <v>0</v>
       </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
+      <c r="X86" t="s">
+        <v>334</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -10106,19 +10115,16 @@
       <c r="BC86">
         <v>0</v>
       </c>
-      <c r="BD86" t="s">
-        <v>309</v>
-      </c>
     </row>
-    <row r="87" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="E87" t="s">
         <v>301</v>
       </c>
       <c r="F87" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -10126,11 +10132,8 @@
       <c r="M87">
         <v>0</v>
       </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
-      <c r="W87">
-        <v>0</v>
+      <c r="X87" t="s">
+        <v>337</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -10181,15 +10184,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="E88" t="s">
         <v>301</v>
       </c>
       <c r="F88" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -10197,11 +10200,8 @@
       <c r="M88">
         <v>0</v>
       </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
-      <c r="W88">
-        <v>0</v>
+      <c r="Z88">
+        <v>1</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -10252,15 +10252,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="E89" t="s">
         <v>301</v>
       </c>
       <c r="F89" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -10268,11 +10268,8 @@
       <c r="M89">
         <v>0</v>
       </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
-      <c r="W89">
-        <v>0</v>
+      <c r="Z89">
+        <v>1</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -10292,6 +10289,15 @@
       <c r="AO89">
         <v>0</v>
       </c>
+      <c r="AR89">
+        <v>0</v>
+      </c>
+      <c r="AT89">
+        <v>0</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
       <c r="AW89">
         <v>0</v>
       </c>
@@ -10313,19 +10319,16 @@
       <c r="BC89">
         <v>0</v>
       </c>
-      <c r="BD89" t="s">
-        <v>303</v>
-      </c>
     </row>
-    <row r="90" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="E90" t="s">
         <v>301</v>
       </c>
       <c r="F90" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -10333,11 +10336,14 @@
       <c r="M90">
         <v>0</v>
       </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
-      <c r="W90">
-        <v>0</v>
+      <c r="Z90">
+        <v>1</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE90">
+        <v>0.5</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -10354,6 +10360,9 @@
       <c r="AJ90">
         <v>0</v>
       </c>
+      <c r="AK90">
+        <v>0.3</v>
+      </c>
       <c r="AO90">
         <v>0</v>
       </c>
@@ -10388,15 +10397,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="E91" t="s">
         <v>301</v>
       </c>
       <c r="F91" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -10404,11 +10413,14 @@
       <c r="M91">
         <v>0</v>
       </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE91">
+        <v>0.5</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -10425,9 +10437,21 @@
       <c r="AJ91">
         <v>0</v>
       </c>
+      <c r="AK91">
+        <v>0.3</v>
+      </c>
       <c r="AO91">
         <v>0</v>
       </c>
+      <c r="AR91">
+        <v>0</v>
+      </c>
+      <c r="AT91">
+        <v>0</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
       <c r="AW91">
         <v>0</v>
       </c>
@@ -10449,19 +10473,16 @@
       <c r="BC91">
         <v>0</v>
       </c>
-      <c r="BD91" t="s">
-        <v>320</v>
-      </c>
     </row>
-    <row r="92" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="E92" t="s">
         <v>301</v>
       </c>
       <c r="F92" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -10469,11 +10490,14 @@
       <c r="M92">
         <v>0</v>
       </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
+      <c r="Z92">
+        <v>1</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE92">
+        <v>0.5</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -10490,6 +10514,9 @@
       <c r="AJ92">
         <v>0</v>
       </c>
+      <c r="AK92">
+        <v>0.3</v>
+      </c>
       <c r="AO92">
         <v>0</v>
       </c>
@@ -10524,15 +10551,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="E93" t="s">
         <v>301</v>
       </c>
       <c r="F93" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -10540,14 +10567,14 @@
       <c r="M93">
         <v>0</v>
       </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-      <c r="X93" t="s">
-        <v>325</v>
+      <c r="Z93">
+        <v>1</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE93">
+        <v>0.5</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -10564,9 +10591,21 @@
       <c r="AJ93">
         <v>0</v>
       </c>
+      <c r="AK93">
+        <v>0.3</v>
+      </c>
       <c r="AO93">
         <v>0</v>
       </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
+      <c r="AT93">
+        <v>0</v>
+      </c>
+      <c r="AU93">
+        <v>0</v>
+      </c>
       <c r="AW93">
         <v>0</v>
       </c>
@@ -10589,22 +10628,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="E94" t="s">
         <v>301</v>
       </c>
       <c r="F94" t="s">
-        <v>327</v>
-      </c>
-      <c r="X94" t="s">
-        <v>328</v>
+        <v>355</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
       </c>
       <c r="Z94">
         <v>1</v>
       </c>
+      <c r="AD94" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE94">
+        <v>0.5</v>
+      </c>
       <c r="AF94">
         <v>0</v>
       </c>
@@ -10620,6 +10668,9 @@
       <c r="AJ94">
         <v>0</v>
       </c>
+      <c r="AK94">
+        <v>0.3</v>
+      </c>
       <c r="AO94">
         <v>0</v>
       </c>
@@ -10654,15 +10705,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="E95" t="s">
         <v>301</v>
       </c>
       <c r="F95" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -10670,11 +10721,11 @@
       <c r="M95">
         <v>0</v>
       </c>
-      <c r="X95" t="s">
-        <v>331</v>
-      </c>
-      <c r="Z95">
-        <v>1</v>
+      <c r="AD95" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE95">
+        <v>0.5</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -10691,6 +10742,9 @@
       <c r="AJ95">
         <v>0</v>
       </c>
+      <c r="AK95">
+        <v>0.3</v>
+      </c>
       <c r="AO95">
         <v>0</v>
       </c>
@@ -10725,15 +10779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="E96" t="s">
         <v>301</v>
       </c>
       <c r="F96" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -10741,8 +10795,8 @@
       <c r="M96">
         <v>0</v>
       </c>
-      <c r="X96" t="s">
-        <v>334</v>
+      <c r="Z96">
+        <v>1</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -10795,13 +10849,13 @@
     </row>
     <row r="97" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="E97" t="s">
         <v>301</v>
       </c>
       <c r="F97" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -10810,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="X97" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -10863,13 +10917,13 @@
     </row>
     <row r="98" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="E98" t="s">
         <v>301</v>
       </c>
       <c r="F98" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -10877,8 +10931,17 @@
       <c r="M98">
         <v>0</v>
       </c>
-      <c r="Z98">
-        <v>1</v>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE98">
+        <v>0.45</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -10894,6 +10957,9 @@
       </c>
       <c r="AJ98">
         <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0.45</v>
       </c>
       <c r="AO98">
         <v>0</v>
@@ -10931,13 +10997,13 @@
     </row>
     <row r="99" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="E99" t="s">
         <v>301</v>
       </c>
       <c r="F99" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -10945,8 +11011,17 @@
       <c r="M99">
         <v>0</v>
       </c>
-      <c r="Z99">
-        <v>1</v>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE99">
+        <v>0.45</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -10962,6 +11037,9 @@
       </c>
       <c r="AJ99">
         <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0.45</v>
       </c>
       <c r="AO99">
         <v>0</v>
@@ -10999,13 +11077,13 @@
     </row>
     <row r="100" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="E100" t="s">
         <v>301</v>
       </c>
       <c r="F100" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -11013,14 +11091,14 @@
       <c r="M100">
         <v>0</v>
       </c>
-      <c r="Z100">
-        <v>1</v>
-      </c>
-      <c r="AD100" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE100">
-        <v>0.5</v>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100" t="s">
+        <v>373</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -11036,9 +11114,6 @@
       </c>
       <c r="AJ100">
         <v>0</v>
-      </c>
-      <c r="AK100">
-        <v>0.3</v>
       </c>
       <c r="AO100">
         <v>0</v>
@@ -11076,13 +11151,13 @@
     </row>
     <row r="101" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="E101" t="s">
         <v>301</v>
       </c>
       <c r="F101" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -11090,76 +11165,73 @@
       <c r="M101">
         <v>0</v>
       </c>
-      <c r="Z101">
-        <v>1</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>347</v>
-      </c>
-      <c r="AE101">
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AR101">
+        <v>0</v>
+      </c>
+      <c r="AT101">
+        <v>0</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AW101">
+        <v>0</v>
+      </c>
+      <c r="AX101">
+        <v>0</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
+      <c r="AZ101">
+        <v>0</v>
+      </c>
+      <c r="BA101">
+        <v>0</v>
+      </c>
+      <c r="BB101">
         <v>0.5</v>
       </c>
-      <c r="AF101">
-        <v>0</v>
-      </c>
-      <c r="AG101">
-        <v>0</v>
-      </c>
-      <c r="AH101">
-        <v>0</v>
-      </c>
-      <c r="AI101">
-        <v>0</v>
-      </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
-      <c r="AK101">
-        <v>0.3</v>
-      </c>
-      <c r="AO101">
-        <v>0</v>
-      </c>
-      <c r="AR101">
-        <v>0</v>
-      </c>
-      <c r="AT101">
-        <v>0</v>
-      </c>
-      <c r="AU101">
-        <v>0</v>
-      </c>
-      <c r="AW101">
-        <v>0</v>
-      </c>
-      <c r="AX101">
-        <v>0</v>
-      </c>
-      <c r="AY101">
-        <v>0</v>
-      </c>
-      <c r="AZ101">
-        <v>0</v>
-      </c>
-      <c r="BA101">
-        <v>0</v>
-      </c>
-      <c r="BB101">
-        <v>0</v>
-      </c>
       <c r="BC101">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="102" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="E102" t="s">
         <v>301</v>
       </c>
       <c r="F102" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -11167,76 +11239,73 @@
       <c r="M102">
         <v>0</v>
       </c>
-      <c r="Z102">
-        <v>1</v>
-      </c>
-      <c r="AD102" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE102">
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AR102">
+        <v>0</v>
+      </c>
+      <c r="AT102">
+        <v>0</v>
+      </c>
+      <c r="AU102">
+        <v>0</v>
+      </c>
+      <c r="AW102">
+        <v>0</v>
+      </c>
+      <c r="AX102">
+        <v>0</v>
+      </c>
+      <c r="AY102">
+        <v>0</v>
+      </c>
+      <c r="AZ102">
+        <v>0</v>
+      </c>
+      <c r="BA102">
+        <v>0</v>
+      </c>
+      <c r="BB102">
+        <v>0.75</v>
+      </c>
+      <c r="BC102">
         <v>0.5</v>
-      </c>
-      <c r="AF102">
-        <v>0</v>
-      </c>
-      <c r="AG102">
-        <v>0</v>
-      </c>
-      <c r="AH102">
-        <v>0</v>
-      </c>
-      <c r="AI102">
-        <v>0</v>
-      </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
-      <c r="AK102">
-        <v>0.3</v>
-      </c>
-      <c r="AO102">
-        <v>0</v>
-      </c>
-      <c r="AR102">
-        <v>0</v>
-      </c>
-      <c r="AT102">
-        <v>0</v>
-      </c>
-      <c r="AU102">
-        <v>0</v>
-      </c>
-      <c r="AW102">
-        <v>0</v>
-      </c>
-      <c r="AX102">
-        <v>0</v>
-      </c>
-      <c r="AY102">
-        <v>0</v>
-      </c>
-      <c r="AZ102">
-        <v>0</v>
-      </c>
-      <c r="BA102">
-        <v>0</v>
-      </c>
-      <c r="BB102">
-        <v>0</v>
-      </c>
-      <c r="BC102">
-        <v>0</v>
       </c>
     </row>
     <row r="103" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="E103" t="s">
         <v>301</v>
       </c>
       <c r="F103" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -11244,14 +11313,14 @@
       <c r="M103">
         <v>0</v>
       </c>
-      <c r="Z103">
-        <v>1</v>
-      </c>
-      <c r="AD103" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE103">
-        <v>0.5</v>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103" t="s">
+        <v>373</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -11268,9 +11337,6 @@
       <c r="AJ103">
         <v>0</v>
       </c>
-      <c r="AK103">
-        <v>0.3</v>
-      </c>
       <c r="AO103">
         <v>0</v>
       </c>
@@ -11299,21 +11365,21 @@
         <v>0</v>
       </c>
       <c r="BB103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC103">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="104" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="E104" t="s">
         <v>301</v>
       </c>
       <c r="F104" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -11321,14 +11387,11 @@
       <c r="M104">
         <v>0</v>
       </c>
-      <c r="Z104">
-        <v>1</v>
-      </c>
-      <c r="AD104" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE104">
-        <v>0.5</v>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -11344,9 +11407,6 @@
       </c>
       <c r="AJ104">
         <v>0</v>
-      </c>
-      <c r="AK104">
-        <v>0.3</v>
       </c>
       <c r="AO104">
         <v>0</v>
@@ -11384,13 +11444,13 @@
     </row>
     <row r="105" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="E105" t="s">
         <v>301</v>
       </c>
       <c r="F105" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -11398,11 +11458,14 @@
       <c r="M105">
         <v>0</v>
       </c>
-      <c r="AD105" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE105">
-        <v>0.5</v>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105" t="s">
+        <v>384</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -11418,9 +11481,6 @@
       </c>
       <c r="AJ105">
         <v>0</v>
-      </c>
-      <c r="AK105">
-        <v>0.3</v>
       </c>
       <c r="AO105">
         <v>0</v>
@@ -11458,13 +11518,13 @@
     </row>
     <row r="106" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="E106" t="s">
         <v>301</v>
       </c>
       <c r="F106" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -11472,8 +11532,14 @@
       <c r="M106">
         <v>0</v>
       </c>
-      <c r="Z106">
-        <v>1</v>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106" t="s">
+        <v>387</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -11526,22 +11592,22 @@
     </row>
     <row r="107" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="E107" t="s">
         <v>301</v>
       </c>
       <c r="F107" t="s">
-        <v>363</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="X107" t="s">
-        <v>364</v>
+        <v>389</v>
+      </c>
+      <c r="Z107">
+        <v>1</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE107">
+        <v>0.15</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -11557,6 +11623,9 @@
       </c>
       <c r="AJ107">
         <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0.25</v>
       </c>
       <c r="AO107">
         <v>0</v>
@@ -11594,31 +11663,22 @@
     </row>
     <row r="108" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="E108" t="s">
         <v>301</v>
       </c>
       <c r="F108" t="s">
-        <v>366</v>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
+        <v>391</v>
+      </c>
+      <c r="Z108">
+        <v>1</v>
       </c>
       <c r="AD108" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="AE108">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -11636,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="AK108">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="AO108">
         <v>0</v>
@@ -11674,31 +11734,19 @@
     </row>
     <row r="109" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="E109" t="s">
         <v>301</v>
       </c>
       <c r="F109" t="s">
-        <v>369</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="V109">
-        <v>0</v>
-      </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-      <c r="AD109" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE109">
-        <v>0.45</v>
+        <v>393</v>
+      </c>
+      <c r="X109" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z109">
+        <v>1</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -11714,9 +11762,6 @@
       </c>
       <c r="AJ109">
         <v>0</v>
-      </c>
-      <c r="AK109">
-        <v>0.45</v>
       </c>
       <c r="AO109">
         <v>0</v>
@@ -11754,28 +11799,22 @@
     </row>
     <row r="110" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="E110" t="s">
         <v>301</v>
       </c>
       <c r="F110" t="s">
-        <v>372</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-      <c r="X110" t="s">
-        <v>373</v>
+        <v>396</v>
+      </c>
+      <c r="Z110">
+        <v>1</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE110">
+        <v>0.15</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -11791,6 +11830,9 @@
       </c>
       <c r="AJ110">
         <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0.25</v>
       </c>
       <c r="AO110">
         <v>0</v>
@@ -11828,28 +11870,22 @@
     </row>
     <row r="111" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="E111" t="s">
         <v>301</v>
       </c>
       <c r="F111" t="s">
-        <v>375</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-      <c r="X111" t="s">
-        <v>373</v>
+        <v>398</v>
+      </c>
+      <c r="Z111">
+        <v>1</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE111">
+        <v>0.15</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -11866,6 +11902,9 @@
       <c r="AJ111">
         <v>0</v>
       </c>
+      <c r="AK111">
+        <v>0.25</v>
+      </c>
       <c r="AO111">
         <v>0</v>
       </c>
@@ -11894,36 +11933,30 @@
         <v>0</v>
       </c>
       <c r="BB111">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BC111">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="E112" t="s">
         <v>301</v>
       </c>
       <c r="F112" t="s">
-        <v>377</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-      <c r="V112">
-        <v>0</v>
-      </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-      <c r="X112" t="s">
-        <v>373</v>
+        <v>400</v>
+      </c>
+      <c r="Z112">
+        <v>1</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE112">
+        <v>0.15</v>
       </c>
       <c r="AF112">
         <v>0</v>
@@ -11940,6 +11973,9 @@
       <c r="AJ112">
         <v>0</v>
       </c>
+      <c r="AK112">
+        <v>0.25</v>
+      </c>
       <c r="AO112">
         <v>0</v>
       </c>
@@ -11968,36 +12004,30 @@
         <v>0</v>
       </c>
       <c r="BB112">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BC112">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="E113" t="s">
         <v>301</v>
       </c>
       <c r="F113" t="s">
-        <v>379</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-      <c r="V113">
-        <v>0</v>
-      </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-      <c r="X113" t="s">
-        <v>373</v>
+        <v>402</v>
+      </c>
+      <c r="Z113">
+        <v>1</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE113">
+        <v>0.15</v>
       </c>
       <c r="AF113">
         <v>0</v>
@@ -12014,6 +12044,9 @@
       <c r="AJ113">
         <v>0</v>
       </c>
+      <c r="AK113">
+        <v>0.25</v>
+      </c>
       <c r="AO113">
         <v>0</v>
       </c>
@@ -12042,21 +12075,21 @@
         <v>0</v>
       </c>
       <c r="BB113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC113">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="E114" t="s">
         <v>301</v>
       </c>
       <c r="F114" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -12070,64 +12103,19 @@
       <c r="W114">
         <v>0</v>
       </c>
-      <c r="AF114">
-        <v>0</v>
-      </c>
-      <c r="AG114">
-        <v>0</v>
-      </c>
-      <c r="AH114">
-        <v>0</v>
-      </c>
-      <c r="AI114">
-        <v>0</v>
-      </c>
-      <c r="AJ114">
-        <v>0</v>
-      </c>
-      <c r="AO114">
-        <v>0</v>
-      </c>
-      <c r="AR114">
-        <v>0</v>
-      </c>
-      <c r="AT114">
-        <v>0</v>
-      </c>
-      <c r="AU114">
-        <v>0</v>
-      </c>
-      <c r="AW114">
-        <v>0</v>
-      </c>
-      <c r="AX114">
-        <v>0</v>
-      </c>
-      <c r="AY114">
-        <v>0</v>
-      </c>
-      <c r="AZ114">
-        <v>0</v>
-      </c>
-      <c r="BA114">
-        <v>0</v>
-      </c>
-      <c r="BB114">
-        <v>0</v>
-      </c>
-      <c r="BC114">
-        <v>0</v>
+      <c r="X114" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="E115" t="s">
         <v>301</v>
       </c>
       <c r="F115" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -12139,69 +12127,18 @@
         <v>0</v>
       </c>
       <c r="W115">
-        <v>0</v>
-      </c>
-      <c r="X115" t="s">
-        <v>384</v>
-      </c>
-      <c r="AF115">
-        <v>0</v>
-      </c>
-      <c r="AG115">
-        <v>0</v>
-      </c>
-      <c r="AH115">
-        <v>0</v>
-      </c>
-      <c r="AI115">
-        <v>0</v>
-      </c>
-      <c r="AJ115">
-        <v>0</v>
-      </c>
-      <c r="AO115">
-        <v>0</v>
-      </c>
-      <c r="AR115">
-        <v>0</v>
-      </c>
-      <c r="AT115">
-        <v>0</v>
-      </c>
-      <c r="AU115">
-        <v>0</v>
-      </c>
-      <c r="AW115">
-        <v>0</v>
-      </c>
-      <c r="AX115">
-        <v>0</v>
-      </c>
-      <c r="AY115">
-        <v>0</v>
-      </c>
-      <c r="AZ115">
-        <v>0</v>
-      </c>
-      <c r="BA115">
-        <v>0</v>
-      </c>
-      <c r="BB115">
-        <v>0</v>
-      </c>
-      <c r="BC115">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="E116" t="s">
         <v>301</v>
       </c>
       <c r="F116" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -12214,9 +12151,6 @@
       </c>
       <c r="W116">
         <v>0</v>
-      </c>
-      <c r="X116" t="s">
-        <v>387</v>
       </c>
       <c r="AF116">
         <v>0</v>
@@ -12269,22 +12203,25 @@
     </row>
     <row r="117" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="E117" t="s">
         <v>301</v>
       </c>
       <c r="F117" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z117">
-        <v>1</v>
-      </c>
-      <c r="AD117" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE117">
-        <v>0.15</v>
+        <v>434</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -12300,9 +12237,6 @@
       </c>
       <c r="AJ117">
         <v>0</v>
-      </c>
-      <c r="AK117">
-        <v>0.25</v>
       </c>
       <c r="AO117">
         <v>0</v>
@@ -12340,22 +12274,28 @@
     </row>
     <row r="118" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="E118" t="s">
         <v>301</v>
       </c>
       <c r="F118" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z118">
-        <v>1</v>
-      </c>
-      <c r="AD118" t="s">
-        <v>347</v>
-      </c>
-      <c r="AE118">
-        <v>0.15</v>
+        <v>431</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118" t="s">
+        <v>432</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -12371,9 +12311,6 @@
       </c>
       <c r="AJ118">
         <v>0</v>
-      </c>
-      <c r="AK118">
-        <v>0.25</v>
       </c>
       <c r="AO118">
         <v>0</v>
@@ -12411,19 +12348,25 @@
     </row>
     <row r="119" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="E119" t="s">
         <v>301</v>
       </c>
       <c r="F119" t="s">
-        <v>393</v>
-      </c>
-      <c r="X119" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z119">
-        <v>1</v>
+        <v>429</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
       </c>
       <c r="AF119">
         <v>0</v>
@@ -12472,26 +12415,32 @@
       </c>
       <c r="BC119">
         <v>0</v>
+      </c>
+      <c r="BD119" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="E120" t="s">
         <v>301</v>
       </c>
       <c r="F120" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z120">
-        <v>1</v>
-      </c>
-      <c r="AD120" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE120">
-        <v>0.15</v>
+        <v>427</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -12508,9 +12457,6 @@
       <c r="AJ120">
         <v>0</v>
       </c>
-      <c r="AK120">
-        <v>0.25</v>
-      </c>
       <c r="AO120">
         <v>0</v>
       </c>
@@ -12543,26 +12489,32 @@
       </c>
       <c r="BC120">
         <v>0</v>
+      </c>
+      <c r="BD120" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="E121" t="s">
         <v>301</v>
       </c>
       <c r="F121" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z121">
-        <v>1</v>
-      </c>
-      <c r="AD121" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE121">
-        <v>0.15</v>
+        <v>425</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
       </c>
       <c r="AF121">
         <v>0</v>
@@ -12578,9 +12530,6 @@
       </c>
       <c r="AJ121">
         <v>0</v>
-      </c>
-      <c r="AK121">
-        <v>0.25</v>
       </c>
       <c r="AO121">
         <v>0</v>
@@ -12618,22 +12567,25 @@
     </row>
     <row r="122" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="E122" t="s">
         <v>301</v>
       </c>
       <c r="F122" t="s">
-        <v>400</v>
-      </c>
-      <c r="Z122">
-        <v>1</v>
-      </c>
-      <c r="AD122" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE122">
-        <v>0.15</v>
+        <v>423</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
       </c>
       <c r="AF122">
         <v>0</v>
@@ -12650,9 +12602,6 @@
       <c r="AJ122">
         <v>0</v>
       </c>
-      <c r="AK122">
-        <v>0.25</v>
-      </c>
       <c r="AO122">
         <v>0</v>
       </c>
@@ -12685,26 +12634,35 @@
       </c>
       <c r="BC122">
         <v>0</v>
+      </c>
+      <c r="BD122" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="E123" t="s">
         <v>301</v>
       </c>
       <c r="F123" t="s">
-        <v>402</v>
-      </c>
-      <c r="Z123">
-        <v>1</v>
-      </c>
-      <c r="AD123" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE123">
-        <v>0.15</v>
+        <v>420</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123" t="s">
+        <v>421</v>
       </c>
       <c r="AF123">
         <v>0</v>
@@ -12721,19 +12679,7 @@
       <c r="AJ123">
         <v>0</v>
       </c>
-      <c r="AK123">
-        <v>0.25</v>
-      </c>
       <c r="AO123">
-        <v>0</v>
-      </c>
-      <c r="AR123">
-        <v>0</v>
-      </c>
-      <c r="AT123">
-        <v>0</v>
-      </c>
-      <c r="AU123">
         <v>0</v>
       </c>
       <c r="AW123">
@@ -12760,13 +12706,13 @@
     </row>
     <row r="124" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="E124" t="s">
         <v>301</v>
       </c>
       <c r="F124" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -12780,25 +12726,67 @@
       <c r="W124">
         <v>0</v>
       </c>
-      <c r="X124" t="s">
-        <v>405</v>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <v>0</v>
+      </c>
+      <c r="AR124">
+        <v>0</v>
+      </c>
+      <c r="AT124">
+        <v>0</v>
+      </c>
+      <c r="AU124">
+        <v>0</v>
+      </c>
+      <c r="AW124">
+        <v>0</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
       </c>
       <c r="BB124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC124">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BD124" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="E125" t="s">
         <v>301</v>
       </c>
       <c r="F125" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -12813,24 +12801,75 @@
         <v>0</v>
       </c>
       <c r="AD125" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AE125">
-        <v>0.75</v>
+        <v>0.25</v>
+      </c>
+      <c r="AF125">
+        <v>0</v>
+      </c>
+      <c r="AG125">
+        <v>0</v>
+      </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>0</v>
       </c>
       <c r="AK125">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AO125">
+        <v>0</v>
+      </c>
+      <c r="AR125">
+        <v>0</v>
+      </c>
+      <c r="AT125">
+        <v>0</v>
+      </c>
+      <c r="AU125">
+        <v>0</v>
+      </c>
+      <c r="AW125">
+        <v>0</v>
+      </c>
+      <c r="AX125">
+        <v>0</v>
+      </c>
+      <c r="AY125">
+        <v>0</v>
+      </c>
+      <c r="AZ125">
+        <v>0</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>0</v>
+      </c>
+      <c r="BD125" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="126" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E126" t="s">
         <v>301</v>
       </c>
       <c r="F126" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -12843,17 +12882,77 @@
       </c>
       <c r="W126">
         <v>0</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE126">
+        <v>0.75</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AR126">
+        <v>0</v>
+      </c>
+      <c r="AT126">
+        <v>0</v>
+      </c>
+      <c r="AU126">
+        <v>0</v>
+      </c>
+      <c r="AW126">
+        <v>0</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>0</v>
+      </c>
+      <c r="BD126" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E127" t="s">
         <v>301</v>
       </c>
       <c r="F127" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -12867,28 +12966,64 @@
       <c r="W127">
         <v>0</v>
       </c>
-      <c r="AD127" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE127">
-        <v>0.75</v>
-      </c>
-      <c r="AK127">
-        <v>1</v>
-      </c>
-      <c r="BD127" t="s">
-        <v>309</v>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AO127">
+        <v>0</v>
+      </c>
+      <c r="AR127">
+        <v>0</v>
+      </c>
+      <c r="AT127">
+        <v>0</v>
+      </c>
+      <c r="AU127">
+        <v>0</v>
+      </c>
+      <c r="AW127">
+        <v>0</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E128" t="s">
         <v>301</v>
       </c>
       <c r="F128" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -12903,27 +13038,72 @@
         <v>0</v>
       </c>
       <c r="AD128" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AE128">
-        <v>0.25</v>
+        <v>0.75</v>
+      </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>0</v>
       </c>
       <c r="AK128">
-        <v>1</v>
-      </c>
-      <c r="BD128" t="s">
-        <v>303</v>
+        <v>2</v>
+      </c>
+      <c r="AO128">
+        <v>0</v>
+      </c>
+      <c r="AR128">
+        <v>0</v>
+      </c>
+      <c r="AT128">
+        <v>0</v>
+      </c>
+      <c r="AU128">
+        <v>0</v>
+      </c>
+      <c r="AW128">
+        <v>0</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="3:56" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="E129" t="s">
         <v>301</v>
       </c>
       <c r="F129" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -12937,19 +13117,67 @@
       <c r="W129">
         <v>0</v>
       </c>
-      <c r="BD129" t="s">
-        <v>419</v>
+      <c r="X129" t="s">
+        <v>405</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AO129">
+        <v>0</v>
+      </c>
+      <c r="AR129">
+        <v>0</v>
+      </c>
+      <c r="AT129">
+        <v>0</v>
+      </c>
+      <c r="AU129">
+        <v>0</v>
+      </c>
+      <c r="AW129">
+        <v>0</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>0</v>
+      </c>
+      <c r="AZ129">
+        <v>0</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>1</v>
+      </c>
+      <c r="BC129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="3:56" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>420</v>
+        <v>323</v>
       </c>
       <c r="E130" t="s">
         <v>301</v>
       </c>
       <c r="F130" t="s">
-        <v>421</v>
+        <v>324</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -12964,18 +13192,66 @@
         <v>0</v>
       </c>
       <c r="X130" t="s">
-        <v>422</v>
+        <v>325</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AO130">
+        <v>0</v>
+      </c>
+      <c r="AR130">
+        <v>0</v>
+      </c>
+      <c r="AT130">
+        <v>0</v>
+      </c>
+      <c r="AU130">
+        <v>0</v>
+      </c>
+      <c r="AW130">
+        <v>0</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="3:56" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>423</v>
+        <v>321</v>
       </c>
       <c r="E131" t="s">
         <v>301</v>
       </c>
       <c r="F131" t="s">
-        <v>424</v>
+        <v>322</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -12989,19 +13265,64 @@
       <c r="W131">
         <v>0</v>
       </c>
-      <c r="BD131" t="s">
-        <v>306</v>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AR131">
+        <v>0</v>
+      </c>
+      <c r="AT131">
+        <v>0</v>
+      </c>
+      <c r="AU131">
+        <v>0</v>
+      </c>
+      <c r="AW131">
+        <v>0</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="3:56" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="E132" t="s">
         <v>301</v>
       </c>
       <c r="F132" t="s">
-        <v>426</v>
+        <v>319</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -13014,17 +13335,68 @@
       </c>
       <c r="W132">
         <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AR132">
+        <v>0</v>
+      </c>
+      <c r="AT132">
+        <v>0</v>
+      </c>
+      <c r="AU132">
+        <v>0</v>
+      </c>
+      <c r="AW132">
+        <v>0</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="3:56" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>427</v>
+        <v>316</v>
       </c>
       <c r="E133" t="s">
         <v>301</v>
       </c>
       <c r="F133" t="s">
-        <v>428</v>
+        <v>317</v>
       </c>
       <c r="L133">
         <v>0</v>
@@ -13038,19 +13410,55 @@
       <c r="W133">
         <v>0</v>
       </c>
-      <c r="BD133" t="s">
-        <v>309</v>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AW133">
+        <v>0</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="3:56" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>429</v>
+        <v>314</v>
       </c>
       <c r="E134" t="s">
         <v>301</v>
       </c>
       <c r="F134" t="s">
-        <v>430</v>
+        <v>315</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -13064,19 +13472,67 @@
       <c r="W134">
         <v>0</v>
       </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
+      <c r="AH134">
+        <v>0</v>
+      </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AO134">
+        <v>0</v>
+      </c>
+      <c r="AR134">
+        <v>0</v>
+      </c>
+      <c r="AT134">
+        <v>0</v>
+      </c>
+      <c r="AU134">
+        <v>0</v>
+      </c>
+      <c r="AW134">
+        <v>0</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
       <c r="BD134" t="s">
-        <v>419</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="3:56" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>431</v>
+        <v>312</v>
       </c>
       <c r="E135" t="s">
         <v>301</v>
       </c>
       <c r="F135" t="s">
-        <v>432</v>
+        <v>313</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -13090,19 +13546,64 @@
       <c r="W135">
         <v>0</v>
       </c>
-      <c r="X135" t="s">
-        <v>433</v>
+      <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AR135">
+        <v>0</v>
+      </c>
+      <c r="AT135">
+        <v>0</v>
+      </c>
+      <c r="AU135">
+        <v>0</v>
+      </c>
+      <c r="AW135">
+        <v>0</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="3:56" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>434</v>
+        <v>310</v>
       </c>
       <c r="E136" t="s">
         <v>301</v>
       </c>
       <c r="F136" t="s">
-        <v>435</v>
+        <v>311</v>
       </c>
       <c r="L136">
         <v>0</v>
@@ -13114,18 +13615,66 @@
         <v>0</v>
       </c>
       <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="AF136">
+        <v>0</v>
+      </c>
+      <c r="AG136">
+        <v>0</v>
+      </c>
+      <c r="AH136">
+        <v>0</v>
+      </c>
+      <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AO136">
+        <v>0</v>
+      </c>
+      <c r="AR136">
+        <v>0</v>
+      </c>
+      <c r="AT136">
+        <v>0</v>
+      </c>
+      <c r="AU136">
+        <v>0</v>
+      </c>
+      <c r="AW136">
+        <v>0</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="3:56" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>436</v>
+        <v>307</v>
       </c>
       <c r="E137" t="s">
         <v>301</v>
       </c>
       <c r="F137" t="s">
-        <v>437</v>
+        <v>308</v>
       </c>
       <c r="L137">
         <v>0</v>
@@ -13138,32 +13687,74 @@
       </c>
       <c r="W137">
         <v>0</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AR137">
+        <v>0</v>
+      </c>
+      <c r="AT137">
+        <v>0</v>
+      </c>
+      <c r="AU137">
+        <v>0</v>
+      </c>
+      <c r="AW137">
+        <v>0</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="138" spans="3:56" x14ac:dyDescent="0.2">
-      <c r="C138">
-        <v>1</v>
-      </c>
       <c r="D138" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="E138" t="s">
-        <v>71</v>
+        <v>301</v>
       </c>
       <c r="F138" t="s">
-        <v>72</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="L138">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="M138">
-        <v>120</v>
-      </c>
-      <c r="Q138">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="V138">
         <v>0</v>
@@ -13171,18 +13762,6 @@
       <c r="W138">
         <v>0</v>
       </c>
-      <c r="Y138">
-        <v>1</v>
-      </c>
-      <c r="AA138">
-        <v>60</v>
-      </c>
-      <c r="AB138">
-        <v>90</v>
-      </c>
-      <c r="AC138" t="s">
-        <v>71</v>
-      </c>
       <c r="AF138">
         <v>0</v>
       </c>
@@ -13198,18 +13777,9 @@
       <c r="AJ138">
         <v>0</v>
       </c>
-      <c r="AL138">
-        <v>1</v>
-      </c>
-      <c r="AM138">
-        <v>1</v>
-      </c>
       <c r="AO138">
         <v>0</v>
       </c>
-      <c r="AP138">
-        <v>15</v>
-      </c>
       <c r="AR138">
         <v>0</v>
       </c>
@@ -13239,32 +13809,26 @@
       </c>
       <c r="BC138">
         <v>0</v>
+      </c>
+      <c r="BD138" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="3:56" x14ac:dyDescent="0.2">
-      <c r="C139">
-        <v>1</v>
-      </c>
       <c r="D139" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="E139" t="s">
-        <v>71</v>
+        <v>301</v>
       </c>
       <c r="F139" t="s">
-        <v>74</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="L139">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="M139">
-        <v>120</v>
-      </c>
-      <c r="S139">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="V139">
         <v>0</v>
@@ -13272,18 +13836,6 @@
       <c r="W139">
         <v>0</v>
       </c>
-      <c r="Y139">
-        <v>1</v>
-      </c>
-      <c r="AA139">
-        <v>60</v>
-      </c>
-      <c r="AB139">
-        <v>90</v>
-      </c>
-      <c r="AC139" t="s">
-        <v>71</v>
-      </c>
       <c r="AF139">
         <v>0</v>
       </c>
@@ -13299,21 +13851,9 @@
       <c r="AJ139">
         <v>0</v>
       </c>
-      <c r="AL139">
-        <v>1</v>
-      </c>
-      <c r="AM139">
-        <v>1</v>
-      </c>
       <c r="AO139">
         <v>0</v>
       </c>
-      <c r="AP139">
-        <v>15</v>
-      </c>
-      <c r="AQ139">
-        <v>1</v>
-      </c>
       <c r="AR139">
         <v>0</v>
       </c>
@@ -13343,6 +13883,9 @@
       </c>
       <c r="BC139">
         <v>0</v>
+      </c>
+      <c r="BD139" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="140" spans="3:56" x14ac:dyDescent="0.2">
@@ -13350,13 +13893,13 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E140" t="s">
         <v>71</v>
       </c>
       <c r="F140" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -13367,7 +13910,7 @@
       <c r="M140">
         <v>120</v>
       </c>
-      <c r="U140">
+      <c r="Q140">
         <v>0.35</v>
       </c>
       <c r="V140">
@@ -13414,9 +13957,6 @@
       </c>
       <c r="AP140">
         <v>15</v>
-      </c>
-      <c r="AQ140">
-        <v>1</v>
       </c>
       <c r="AR140">
         <v>0</v>
@@ -13454,13 +13994,13 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E141" t="s">
         <v>71</v>
       </c>
       <c r="F141" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -13471,7 +14011,7 @@
       <c r="M141">
         <v>120</v>
       </c>
-      <c r="R141">
+      <c r="S141">
         <v>0.35</v>
       </c>
       <c r="V141">
@@ -13558,13 +14098,13 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E142" t="s">
         <v>71</v>
       </c>
       <c r="F142" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -13575,7 +14115,7 @@
       <c r="M142">
         <v>120</v>
       </c>
-      <c r="T142">
+      <c r="U142">
         <v>0.35</v>
       </c>
       <c r="V142">
@@ -13627,6 +14167,12 @@
         <v>1</v>
       </c>
       <c r="AR142">
+        <v>0</v>
+      </c>
+      <c r="AT142">
+        <v>0</v>
+      </c>
+      <c r="AU142">
         <v>0</v>
       </c>
       <c r="AW142">
@@ -13656,13 +14202,13 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E143" t="s">
         <v>71</v>
       </c>
       <c r="F143" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -13673,11 +14219,14 @@
       <c r="M143">
         <v>120</v>
       </c>
+      <c r="R143">
+        <v>0.35</v>
+      </c>
       <c r="V143">
         <v>0</v>
       </c>
       <c r="W143">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="Y143">
         <v>1</v>
@@ -13757,13 +14306,13 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E144" t="s">
         <v>71</v>
       </c>
       <c r="F144" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -13774,8 +14323,11 @@
       <c r="M144">
         <v>120</v>
       </c>
+      <c r="T144">
+        <v>0.35</v>
+      </c>
       <c r="V144">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="W144">
         <v>0</v>
@@ -13823,12 +14375,6 @@
         <v>1</v>
       </c>
       <c r="AR144">
-        <v>0</v>
-      </c>
-      <c r="AT144">
-        <v>0</v>
-      </c>
-      <c r="AU144">
         <v>0</v>
       </c>
       <c r="AW144">
@@ -13858,34 +14404,34 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E145" t="s">
         <v>71</v>
       </c>
       <c r="F145" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K145">
         <v>0</v>
       </c>
       <c r="L145">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M145">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="V145">
         <v>0</v>
       </c>
       <c r="W145">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Y145">
         <v>1</v>
       </c>
       <c r="AA145">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB145">
         <v>90</v>
@@ -13894,13 +14440,13 @@
         <v>71</v>
       </c>
       <c r="AF145">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AG145">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AH145">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AI145">
         <v>0</v>
@@ -13918,22 +14464,19 @@
         <v>0</v>
       </c>
       <c r="AP145">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AQ145">
         <v>1</v>
       </c>
       <c r="AR145">
-        <v>0.6</v>
-      </c>
-      <c r="AS145">
         <v>0</v>
       </c>
       <c r="AT145">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AU145">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AW145">
         <v>0</v>
@@ -13962,25 +14505,25 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E146" t="s">
         <v>71</v>
       </c>
       <c r="F146" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K146">
         <v>0</v>
       </c>
       <c r="L146">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M146">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="V146">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="W146">
         <v>0</v>
@@ -13989,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="AA146">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AB146">
         <v>90</v>
@@ -14004,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="AH146">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AI146">
         <v>0</v>
@@ -14022,9 +14565,12 @@
         <v>0</v>
       </c>
       <c r="AP146">
-        <v>30</v>
-      </c>
-      <c r="AS146">
+        <v>15</v>
+      </c>
+      <c r="AQ146">
+        <v>1</v>
+      </c>
+      <c r="AR146">
         <v>0</v>
       </c>
       <c r="AT146">
@@ -14060,55 +14606,49 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E147" t="s">
         <v>71</v>
       </c>
       <c r="F147" t="s">
+        <v>86</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>25000</v>
+      </c>
+      <c r="M147">
+        <v>128</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>1</v>
+      </c>
+      <c r="AA147">
+        <v>70</v>
+      </c>
+      <c r="AB147">
         <v>90</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>28000</v>
-      </c>
-      <c r="M147">
-        <v>130</v>
-      </c>
-      <c r="T147">
-        <v>0.75</v>
-      </c>
-      <c r="U147">
-        <v>0.75</v>
-      </c>
-      <c r="V147">
-        <v>0</v>
-      </c>
-      <c r="W147">
-        <v>0.75</v>
-      </c>
-      <c r="Y147">
-        <v>1</v>
-      </c>
-      <c r="AA147">
-        <v>90</v>
-      </c>
-      <c r="AB147">
-        <v>100</v>
       </c>
       <c r="AC147" t="s">
         <v>71</v>
       </c>
       <c r="AF147">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="AG147">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AH147">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AI147">
         <v>0</v>
@@ -14132,16 +14672,16 @@
         <v>1</v>
       </c>
       <c r="AR147">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AS147">
         <v>0</v>
       </c>
       <c r="AT147">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU147">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AW147">
         <v>0</v>
@@ -14170,13 +14710,13 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E148" t="s">
         <v>71</v>
       </c>
       <c r="F148" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -14187,15 +14727,6 @@
       <c r="M148">
         <v>130</v>
       </c>
-      <c r="Q148">
-        <v>0.75</v>
-      </c>
-      <c r="R148">
-        <v>0.75</v>
-      </c>
-      <c r="S148">
-        <v>0.75</v>
-      </c>
       <c r="V148">
         <v>0</v>
       </c>
@@ -14206,22 +14737,22 @@
         <v>1</v>
       </c>
       <c r="AA148">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB148">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AC148" t="s">
         <v>71</v>
       </c>
       <c r="AF148">
+        <v>0</v>
+      </c>
+      <c r="AG148">
+        <v>0</v>
+      </c>
+      <c r="AH148">
         <v>0.75</v>
-      </c>
-      <c r="AG148">
-        <v>0</v>
-      </c>
-      <c r="AH148">
-        <v>0</v>
       </c>
       <c r="AI148">
         <v>0</v>
@@ -14240,9 +14771,6 @@
       </c>
       <c r="AP148">
         <v>30</v>
-      </c>
-      <c r="AR148">
-        <v>0</v>
       </c>
       <c r="AS148">
         <v>0</v>
@@ -14280,13 +14808,13 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E149" t="s">
         <v>71</v>
       </c>
       <c r="F149" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -14297,23 +14825,26 @@
       <c r="M149">
         <v>130</v>
       </c>
-      <c r="S149">
+      <c r="T149">
         <v>0.75</v>
       </c>
+      <c r="U149">
+        <v>0.75</v>
+      </c>
       <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
         <v>0.75</v>
       </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
       <c r="Y149">
         <v>1</v>
       </c>
       <c r="AA149">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AB149">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AC149" t="s">
         <v>71</v>
@@ -14344,6 +14875,9 @@
       </c>
       <c r="AP149">
         <v>30</v>
+      </c>
+      <c r="AQ149">
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>0</v>
@@ -14384,40 +14918,52 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E150" t="s">
         <v>71</v>
       </c>
       <c r="F150" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K150">
         <v>0</v>
       </c>
       <c r="L150">
-        <v>200</v>
+        <v>28000</v>
       </c>
       <c r="M150">
-        <v>8</v>
+        <v>130</v>
+      </c>
+      <c r="Q150">
+        <v>0.75</v>
+      </c>
+      <c r="R150">
+        <v>0.75</v>
+      </c>
+      <c r="S150">
+        <v>0.75</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
       </c>
       <c r="Y150">
         <v>1</v>
       </c>
-      <c r="Z150">
-        <v>1</v>
-      </c>
       <c r="AA150">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AB150">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="AC150" t="s">
         <v>71</v>
       </c>
       <c r="AF150">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AG150">
         <v>0</v>
@@ -14441,13 +14987,13 @@
         <v>0</v>
       </c>
       <c r="AP150">
-        <v>10</v>
-      </c>
-      <c r="AQ150">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AR150">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
+      </c>
+      <c r="AS150">
+        <v>0</v>
       </c>
       <c r="AT150">
         <v>0</v>
@@ -14482,40 +15028,46 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E151" t="s">
         <v>71</v>
       </c>
       <c r="F151" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K151">
         <v>0</v>
       </c>
       <c r="L151">
-        <v>500</v>
+        <v>28000</v>
       </c>
       <c r="M151">
-        <v>12</v>
+        <v>130</v>
+      </c>
+      <c r="S151">
+        <v>0.75</v>
+      </c>
+      <c r="V151">
+        <v>0.75</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
       </c>
       <c r="Y151">
         <v>1</v>
       </c>
-      <c r="Z151">
-        <v>1</v>
-      </c>
       <c r="AA151">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="AB151">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="AC151" t="s">
         <v>71</v>
       </c>
       <c r="AF151">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AG151">
         <v>0</v>
@@ -14539,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="AP151">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AR151">
         <v>0</v>
@@ -14548,10 +15100,10 @@
         <v>0</v>
       </c>
       <c r="AT151">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AU151">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AW151">
         <v>0</v>
@@ -14580,22 +15132,22 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E152" t="s">
         <v>71</v>
       </c>
       <c r="F152" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K152">
         <v>0</v>
       </c>
       <c r="L152">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M152">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y152">
         <v>1</v>
@@ -14604,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="AA152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB152">
         <v>10</v>
@@ -14639,17 +15191,17 @@
       <c r="AP152">
         <v>10</v>
       </c>
+      <c r="AQ152">
+        <v>1</v>
+      </c>
       <c r="AR152">
-        <v>0</v>
-      </c>
-      <c r="AS152">
-        <v>1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AT152">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AU152">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AW152">
         <v>0</v>
@@ -14678,13 +15230,13 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E153" t="s">
         <v>71</v>
       </c>
       <c r="F153" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -14741,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="AS153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT153">
         <v>0.05</v>
@@ -14776,13 +15328,13 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E154" t="s">
         <v>71</v>
       </c>
       <c r="F154" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -14839,7 +15391,7 @@
         <v>0</v>
       </c>
       <c r="AS154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT154">
         <v>0.05</v>
@@ -14874,13 +15426,13 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E155" t="s">
         <v>71</v>
       </c>
       <c r="F155" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -14937,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="AS155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT155">
         <v>0.05</v>
@@ -14972,13 +15524,13 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E156" t="s">
         <v>71</v>
       </c>
       <c r="F156" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -15014,7 +15566,7 @@
         <v>0</v>
       </c>
       <c r="AI156">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ156">
         <v>0</v>
@@ -15035,10 +15587,10 @@
         <v>0</v>
       </c>
       <c r="AS156">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT156">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AU156">
         <v>0.05</v>
@@ -15070,22 +15622,22 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E157" t="s">
         <v>71</v>
       </c>
       <c r="F157" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K157">
         <v>0</v>
       </c>
       <c r="L157">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M157">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y157">
         <v>1</v>
@@ -15094,7 +15646,7 @@
         <v>1</v>
       </c>
       <c r="AA157">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB157">
         <v>10</v>
@@ -15123,20 +15675,23 @@
       <c r="AM157">
         <v>1</v>
       </c>
-      <c r="AN157">
-        <v>1</v>
-      </c>
       <c r="AO157">
+        <v>0</v>
+      </c>
+      <c r="AP157">
+        <v>10</v>
+      </c>
+      <c r="AR157">
+        <v>0</v>
+      </c>
+      <c r="AS157">
+        <v>4</v>
+      </c>
+      <c r="AT157">
         <v>0.05</v>
       </c>
-      <c r="AR157">
-        <v>0</v>
-      </c>
-      <c r="AT157">
-        <v>0</v>
-      </c>
       <c r="AU157">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW157">
         <v>0</v>
@@ -15165,22 +15720,22 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E158" t="s">
         <v>71</v>
       </c>
       <c r="F158" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K158">
         <v>0</v>
       </c>
       <c r="L158">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M158">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Y158">
         <v>1</v>
@@ -15189,7 +15744,7 @@
         <v>1</v>
       </c>
       <c r="AA158">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB158">
         <v>10</v>
@@ -15207,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="AI158">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ158">
         <v>0</v>
@@ -15222,19 +15777,19 @@
         <v>0</v>
       </c>
       <c r="AP158">
-        <v>15</v>
-      </c>
-      <c r="AQ158">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AR158">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="AS158">
+        <v>5</v>
       </c>
       <c r="AT158">
         <v>0</v>
       </c>
       <c r="AU158">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW158">
         <v>0</v>
@@ -15263,22 +15818,22 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E159" t="s">
         <v>71</v>
       </c>
       <c r="F159" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K159">
         <v>0</v>
       </c>
       <c r="L159">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="M159">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Y159">
         <v>1</v>
@@ -15287,10 +15842,10 @@
         <v>1</v>
       </c>
       <c r="AA159">
+        <v>5</v>
+      </c>
+      <c r="AB159">
         <v>10</v>
-      </c>
-      <c r="AB159">
-        <v>70</v>
       </c>
       <c r="AC159" t="s">
         <v>71</v>
@@ -15316,23 +15871,20 @@
       <c r="AM159">
         <v>1</v>
       </c>
+      <c r="AN159">
+        <v>1</v>
+      </c>
       <c r="AO159">
-        <v>0</v>
-      </c>
-      <c r="AP159">
-        <v>15</v>
+        <v>0.05</v>
       </c>
       <c r="AR159">
         <v>0</v>
       </c>
-      <c r="AS159">
-        <v>4</v>
-      </c>
       <c r="AT159">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AU159">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AW159">
         <v>0</v>
@@ -15361,22 +15913,22 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E160" t="s">
         <v>71</v>
       </c>
       <c r="F160" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K160">
         <v>0</v>
       </c>
       <c r="L160">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M160">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y160">
         <v>1</v>
@@ -15385,10 +15937,10 @@
         <v>1</v>
       </c>
       <c r="AA160">
+        <v>8</v>
+      </c>
+      <c r="AB160">
         <v>10</v>
-      </c>
-      <c r="AB160">
-        <v>70</v>
       </c>
       <c r="AC160" t="s">
         <v>71</v>
@@ -15403,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="AI160">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ160">
         <v>0</v>
@@ -15420,17 +15972,17 @@
       <c r="AP160">
         <v>15</v>
       </c>
+      <c r="AQ160">
+        <v>1</v>
+      </c>
       <c r="AR160">
-        <v>0</v>
-      </c>
-      <c r="AS160">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="AT160">
         <v>0</v>
       </c>
       <c r="AU160">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AW160">
         <v>0</v>
@@ -15459,13 +16011,13 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E161" t="s">
         <v>71</v>
       </c>
       <c r="F161" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -15522,7 +16074,7 @@
         <v>0</v>
       </c>
       <c r="AS161">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT161">
         <v>0.08</v>
@@ -15557,13 +16109,13 @@
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E162" t="s">
         <v>71</v>
       </c>
       <c r="F162" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -15581,7 +16133,7 @@
         <v>1</v>
       </c>
       <c r="AA162">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AB162">
         <v>70</v>
@@ -15599,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="AI162">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ162">
         <v>0</v>
@@ -15620,10 +16172,10 @@
         <v>0</v>
       </c>
       <c r="AS162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT162">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AU162">
         <v>0.08</v>
@@ -15655,13 +16207,13 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E163" t="s">
         <v>71</v>
       </c>
       <c r="F163" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -15679,7 +16231,7 @@
         <v>1</v>
       </c>
       <c r="AA163">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AB163">
         <v>70</v>
@@ -15718,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="AS163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT163">
         <v>0.08</v>
@@ -15753,13 +16305,13 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E164" t="s">
         <v>71</v>
       </c>
       <c r="F164" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -15816,7 +16368,7 @@
         <v>0</v>
       </c>
       <c r="AS164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT164">
         <v>0.08</v>
@@ -15851,22 +16403,22 @@
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E165" t="s">
         <v>71</v>
       </c>
       <c r="F165" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K165">
         <v>0</v>
       </c>
       <c r="L165">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M165">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y165">
         <v>1</v>
@@ -15875,7 +16427,7 @@
         <v>1</v>
       </c>
       <c r="AA165">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB165">
         <v>70</v>
@@ -15904,20 +16456,23 @@
       <c r="AM165">
         <v>1</v>
       </c>
-      <c r="AN165">
-        <v>1</v>
-      </c>
       <c r="AO165">
+        <v>0</v>
+      </c>
+      <c r="AP165">
+        <v>15</v>
+      </c>
+      <c r="AR165">
+        <v>0</v>
+      </c>
+      <c r="AS165">
+        <v>2</v>
+      </c>
+      <c r="AT165">
         <v>0.08</v>
       </c>
-      <c r="AR165">
-        <v>0</v>
-      </c>
-      <c r="AT165">
-        <v>0</v>
-      </c>
       <c r="AU165">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AW165">
         <v>0</v>
@@ -15946,22 +16501,22 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E166" t="s">
         <v>71</v>
       </c>
       <c r="F166" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="M166">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Y166">
         <v>1</v>
@@ -15970,7 +16525,7 @@
         <v>1</v>
       </c>
       <c r="AA166">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AB166">
         <v>70</v>
@@ -16003,19 +16558,19 @@
         <v>0</v>
       </c>
       <c r="AP166">
-        <v>20</v>
-      </c>
-      <c r="AQ166">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AR166">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="AS166">
+        <v>3</v>
       </c>
       <c r="AT166">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AU166">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AW166">
         <v>0</v>
@@ -16044,22 +16599,22 @@
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E167" t="s">
         <v>71</v>
       </c>
       <c r="F167" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K167">
         <v>0</v>
       </c>
       <c r="L167">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M167">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="Y167">
         <v>1</v>
@@ -16068,10 +16623,10 @@
         <v>1</v>
       </c>
       <c r="AA167">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB167">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AC167" t="s">
         <v>71</v>
@@ -16097,23 +16652,20 @@
       <c r="AM167">
         <v>1</v>
       </c>
+      <c r="AN167">
+        <v>1</v>
+      </c>
       <c r="AO167">
-        <v>0</v>
-      </c>
-      <c r="AP167">
-        <v>20</v>
+        <v>0.08</v>
       </c>
       <c r="AR167">
         <v>0</v>
       </c>
-      <c r="AS167">
-        <v>4</v>
-      </c>
       <c r="AT167">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AU167">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AW167">
         <v>0</v>
@@ -16142,22 +16694,22 @@
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E168" t="s">
         <v>71</v>
       </c>
       <c r="F168" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K168">
         <v>0</v>
       </c>
       <c r="L168">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M168">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Y168">
         <v>1</v>
@@ -16166,10 +16718,10 @@
         <v>1</v>
       </c>
       <c r="AA168">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB168">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AC168" t="s">
         <v>71</v>
@@ -16184,7 +16736,7 @@
         <v>0</v>
       </c>
       <c r="AI168">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ168">
         <v>0</v>
@@ -16201,17 +16753,17 @@
       <c r="AP168">
         <v>20</v>
       </c>
+      <c r="AQ168">
+        <v>1</v>
+      </c>
       <c r="AR168">
-        <v>0</v>
-      </c>
-      <c r="AS168">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="AT168">
         <v>0</v>
       </c>
       <c r="AU168">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AW168">
         <v>0</v>
@@ -16240,13 +16792,13 @@
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E169" t="s">
         <v>71</v>
       </c>
       <c r="F169" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -16303,10 +16855,10 @@
         <v>0</v>
       </c>
       <c r="AS169">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT169">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AU169">
         <v>0.01</v>
@@ -16338,13 +16890,13 @@
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E170" t="s">
         <v>71</v>
       </c>
       <c r="F170" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K170">
         <v>0</v>
@@ -16380,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="AI170">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AJ170">
         <v>0</v>
@@ -16401,10 +16953,10 @@
         <v>0</v>
       </c>
       <c r="AS170">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT170">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AU170">
         <v>0.01</v>
@@ -16436,13 +16988,13 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E171" t="s">
         <v>71</v>
       </c>
       <c r="F171" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -16499,7 +17051,7 @@
         <v>0</v>
       </c>
       <c r="AS171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT171">
         <v>0.01</v>
@@ -16534,13 +17086,13 @@
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E172" t="s">
         <v>71</v>
       </c>
       <c r="F172" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -16597,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="AS172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT172">
         <v>0.01</v>
@@ -16632,22 +17184,22 @@
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E173" t="s">
         <v>71</v>
       </c>
       <c r="F173" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
       <c r="L173">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M173">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Y173">
         <v>1</v>
@@ -16656,7 +17208,7 @@
         <v>1</v>
       </c>
       <c r="AA173">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AB173">
         <v>80</v>
@@ -16685,20 +17237,23 @@
       <c r="AM173">
         <v>1</v>
       </c>
-      <c r="AN173">
-        <v>1</v>
-      </c>
       <c r="AO173">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="AP173">
+        <v>20</v>
       </c>
       <c r="AR173">
         <v>0</v>
       </c>
+      <c r="AS173">
+        <v>2</v>
+      </c>
       <c r="AT173">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AU173">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AW173">
         <v>0</v>
@@ -16727,28 +17282,22 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E174" t="s">
         <v>71</v>
       </c>
       <c r="F174" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="K174">
         <v>0</v>
       </c>
       <c r="L174">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M174">
-        <v>80</v>
-      </c>
-      <c r="V174">
-        <v>0</v>
-      </c>
-      <c r="W174">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Y174">
         <v>1</v>
@@ -16757,7 +17306,7 @@
         <v>1</v>
       </c>
       <c r="AA174">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB174">
         <v>80</v>
@@ -16778,7 +17327,7 @@
         <v>0</v>
       </c>
       <c r="AJ174">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AL174">
         <v>1</v>
@@ -16790,19 +17339,19 @@
         <v>0</v>
       </c>
       <c r="AP174">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR174">
         <v>0</v>
       </c>
       <c r="AS174">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT174">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AU174">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AW174">
         <v>0</v>
@@ -16831,28 +17380,22 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E175" t="s">
         <v>71</v>
       </c>
       <c r="F175" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="K175">
         <v>0</v>
       </c>
       <c r="L175">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M175">
-        <v>90</v>
-      </c>
-      <c r="V175">
-        <v>0</v>
-      </c>
-      <c r="W175">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y175">
         <v>1</v>
@@ -16861,28 +17404,28 @@
         <v>1</v>
       </c>
       <c r="AA175">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AB175">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AC175" t="s">
         <v>71</v>
       </c>
       <c r="AF175">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG175">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AH175">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AI175">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AJ175">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AL175">
         <v>1</v>
@@ -16890,23 +17433,20 @@
       <c r="AM175">
         <v>1</v>
       </c>
+      <c r="AN175">
+        <v>1</v>
+      </c>
       <c r="AO175">
-        <v>0</v>
-      </c>
-      <c r="AP175">
-        <v>25</v>
+        <v>0.1</v>
       </c>
       <c r="AR175">
         <v>0</v>
       </c>
-      <c r="AS175">
-        <v>0</v>
-      </c>
       <c r="AT175">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AU175">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AW175">
         <v>0</v>
@@ -16935,22 +17475,22 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E176" t="s">
         <v>71</v>
       </c>
       <c r="F176" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K176">
         <v>0</v>
       </c>
       <c r="L176">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M176">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="V176">
         <v>0</v>
@@ -16965,10 +17505,10 @@
         <v>1</v>
       </c>
       <c r="AA176">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AB176">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC176" t="s">
         <v>71</v>
@@ -16986,7 +17526,7 @@
         <v>0</v>
       </c>
       <c r="AJ176">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AL176">
         <v>1</v>
@@ -16998,22 +17538,19 @@
         <v>0</v>
       </c>
       <c r="AP176">
-        <v>28</v>
-      </c>
-      <c r="AQ176">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AR176">
+        <v>0</v>
+      </c>
+      <c r="AS176">
+        <v>6</v>
+      </c>
+      <c r="AT176">
+        <v>0</v>
+      </c>
+      <c r="AU176">
         <v>0.1</v>
-      </c>
-      <c r="AS176">
-        <v>3</v>
-      </c>
-      <c r="AT176">
-        <v>0.15</v>
-      </c>
-      <c r="AU176">
-        <v>0.25</v>
       </c>
       <c r="AW176">
         <v>0</v>
@@ -17042,22 +17579,22 @@
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E177" t="s">
         <v>71</v>
       </c>
       <c r="F177" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K177">
         <v>0</v>
       </c>
       <c r="L177">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M177">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="V177">
         <v>0</v>
@@ -17072,75 +17609,286 @@
         <v>1</v>
       </c>
       <c r="AA177">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB177">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AC177" t="s">
         <v>71</v>
       </c>
       <c r="AF177">
+        <v>0.25</v>
+      </c>
+      <c r="AG177">
+        <v>0.25</v>
+      </c>
+      <c r="AH177">
+        <v>0.25</v>
+      </c>
+      <c r="AI177">
+        <v>0.05</v>
+      </c>
+      <c r="AJ177">
+        <v>0.05</v>
+      </c>
+      <c r="AL177">
+        <v>1</v>
+      </c>
+      <c r="AM177">
+        <v>1</v>
+      </c>
+      <c r="AO177">
+        <v>0</v>
+      </c>
+      <c r="AP177">
+        <v>25</v>
+      </c>
+      <c r="AR177">
+        <v>0</v>
+      </c>
+      <c r="AS177">
+        <v>0</v>
+      </c>
+      <c r="AT177">
+        <v>0.25</v>
+      </c>
+      <c r="AU177">
         <v>0.5</v>
       </c>
-      <c r="AG177">
+      <c r="AW177">
+        <v>0</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>0</v>
+      </c>
+      <c r="BC177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="3:55" x14ac:dyDescent="0.2">
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>134</v>
+      </c>
+      <c r="E178" t="s">
+        <v>71</v>
+      </c>
+      <c r="F178" t="s">
+        <v>135</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>20000</v>
+      </c>
+      <c r="M178">
+        <v>100</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>1</v>
+      </c>
+      <c r="Z178">
+        <v>1</v>
+      </c>
+      <c r="AA178">
+        <v>45</v>
+      </c>
+      <c r="AB178">
+        <v>90</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF178">
+        <v>0</v>
+      </c>
+      <c r="AG178">
+        <v>0</v>
+      </c>
+      <c r="AH178">
+        <v>0</v>
+      </c>
+      <c r="AI178">
+        <v>0</v>
+      </c>
+      <c r="AJ178">
+        <v>0</v>
+      </c>
+      <c r="AL178">
+        <v>1</v>
+      </c>
+      <c r="AM178">
+        <v>1</v>
+      </c>
+      <c r="AO178">
+        <v>0</v>
+      </c>
+      <c r="AP178">
+        <v>28</v>
+      </c>
+      <c r="AQ178">
+        <v>1</v>
+      </c>
+      <c r="AR178">
+        <v>0.1</v>
+      </c>
+      <c r="AS178">
+        <v>3</v>
+      </c>
+      <c r="AT178">
+        <v>0.15</v>
+      </c>
+      <c r="AU178">
+        <v>0.25</v>
+      </c>
+      <c r="AW178">
+        <v>0</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>0</v>
+      </c>
+      <c r="AZ178">
+        <v>0</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>0</v>
+      </c>
+      <c r="BC178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="3:55" x14ac:dyDescent="0.2">
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>136</v>
+      </c>
+      <c r="E179" t="s">
+        <v>71</v>
+      </c>
+      <c r="F179" t="s">
+        <v>137</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>21000</v>
+      </c>
+      <c r="M179">
+        <v>110</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>1</v>
+      </c>
+      <c r="Z179">
+        <v>1</v>
+      </c>
+      <c r="AA179">
+        <v>50</v>
+      </c>
+      <c r="AB179">
+        <v>90</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF179">
         <v>0.5</v>
       </c>
-      <c r="AH177">
+      <c r="AG179">
         <v>0.5</v>
       </c>
-      <c r="AI177">
+      <c r="AH179">
         <v>0.5</v>
       </c>
-      <c r="AJ177">
+      <c r="AI179">
         <v>0.5</v>
       </c>
-      <c r="AL177">
-        <v>1</v>
-      </c>
-      <c r="AM177">
-        <v>1</v>
-      </c>
-      <c r="AO177">
-        <v>0</v>
-      </c>
-      <c r="AP177">
+      <c r="AJ179">
+        <v>0.5</v>
+      </c>
+      <c r="AL179">
+        <v>1</v>
+      </c>
+      <c r="AM179">
+        <v>1</v>
+      </c>
+      <c r="AO179">
+        <v>0</v>
+      </c>
+      <c r="AP179">
         <v>30</v>
       </c>
-      <c r="AQ177">
-        <v>1</v>
-      </c>
-      <c r="AR177">
+      <c r="AQ179">
+        <v>1</v>
+      </c>
+      <c r="AR179">
         <v>0.15</v>
       </c>
-      <c r="AS177">
-        <v>0</v>
-      </c>
-      <c r="AT177">
+      <c r="AS179">
+        <v>0</v>
+      </c>
+      <c r="AT179">
         <v>0.5</v>
       </c>
-      <c r="AU177">
-        <v>0</v>
-      </c>
-      <c r="AW177">
-        <v>0</v>
-      </c>
-      <c r="AX177">
-        <v>0</v>
-      </c>
-      <c r="AY177">
-        <v>0</v>
-      </c>
-      <c r="AZ177">
-        <v>0</v>
-      </c>
-      <c r="BA177">
-        <v>0</v>
-      </c>
-      <c r="BB177">
-        <v>0</v>
-      </c>
-      <c r="BC177">
+      <c r="AU179">
+        <v>0</v>
+      </c>
+      <c r="AW179">
+        <v>0</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>0</v>
+      </c>
+      <c r="AZ179">
+        <v>0</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/items-second-set.xlsx
+++ b/resources/data-imports/items-second-set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5448366F-05A4-F547-B6C7-8A08B18EE9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A855B028-1601-1A4F-9E97-16EF865EA42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,9 +1020,6 @@
     <t>labyrinth</t>
   </si>
   <si>
-    <t>River Stix Sandals</t>
-  </si>
-  <si>
     <t>Walk across water made to kill you.</t>
   </si>
   <si>
@@ -1360,6 +1357,9 @@
   </si>
   <si>
     <t>Purgatories Lantern</t>
+  </si>
+  <si>
+    <t>River Styx Sandals</t>
   </si>
 </sst>
 </file>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="AT134" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9979,22 +9979,22 @@
     </row>
     <row r="85" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
       <c r="E85" t="s">
         <v>301</v>
       </c>
       <c r="F85" t="s">
+        <v>329</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="X85" t="s">
         <v>330</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="X85" t="s">
-        <v>331</v>
       </c>
       <c r="Z85">
         <v>1</v>
@@ -10050,22 +10050,22 @@
     </row>
     <row r="86" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E86" t="s">
         <v>301</v>
       </c>
       <c r="F86" t="s">
+        <v>332</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="X86" t="s">
         <v>333</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="X86" t="s">
-        <v>334</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -10118,22 +10118,22 @@
     </row>
     <row r="87" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E87" t="s">
         <v>301</v>
       </c>
       <c r="F87" t="s">
+        <v>335</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="X87" t="s">
         <v>336</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="X87" t="s">
-        <v>337</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -10186,13 +10186,13 @@
     </row>
     <row r="88" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E88" t="s">
         <v>301</v>
       </c>
       <c r="F88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -10254,13 +10254,13 @@
     </row>
     <row r="89" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E89" t="s">
         <v>301</v>
       </c>
       <c r="F89" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -10322,25 +10322,25 @@
     </row>
     <row r="90" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E90" t="s">
         <v>301</v>
       </c>
       <c r="F90" t="s">
+        <v>342</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>1</v>
+      </c>
+      <c r="AD90" t="s">
         <v>343</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="Z90">
-        <v>1</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>344</v>
       </c>
       <c r="AE90">
         <v>0.5</v>
@@ -10399,25 +10399,25 @@
     </row>
     <row r="91" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E91" t="s">
         <v>301</v>
       </c>
       <c r="F91" t="s">
+        <v>345</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+      <c r="AD91" t="s">
         <v>346</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="Z91">
-        <v>1</v>
-      </c>
-      <c r="AD91" t="s">
-        <v>347</v>
       </c>
       <c r="AE91">
         <v>0.5</v>
@@ -10476,25 +10476,25 @@
     </row>
     <row r="92" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E92" t="s">
         <v>301</v>
       </c>
       <c r="F92" t="s">
+        <v>348</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>1</v>
+      </c>
+      <c r="AD92" t="s">
         <v>349</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="Z92">
-        <v>1</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>350</v>
       </c>
       <c r="AE92">
         <v>0.5</v>
@@ -10553,25 +10553,25 @@
     </row>
     <row r="93" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E93" t="s">
         <v>301</v>
       </c>
       <c r="F93" t="s">
+        <v>351</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>1</v>
+      </c>
+      <c r="AD93" t="s">
         <v>352</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="Z93">
-        <v>1</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>353</v>
       </c>
       <c r="AE93">
         <v>0.5</v>
@@ -10630,25 +10630,25 @@
     </row>
     <row r="94" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E94" t="s">
         <v>301</v>
       </c>
       <c r="F94" t="s">
+        <v>354</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>1</v>
+      </c>
+      <c r="AD94" t="s">
         <v>355</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="Z94">
-        <v>1</v>
-      </c>
-      <c r="AD94" t="s">
-        <v>356</v>
       </c>
       <c r="AE94">
         <v>0.5</v>
@@ -10707,22 +10707,22 @@
     </row>
     <row r="95" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E95" t="s">
         <v>301</v>
       </c>
       <c r="F95" t="s">
+        <v>357</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="AD95" t="s">
         <v>358</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>359</v>
       </c>
       <c r="AE95">
         <v>0.5</v>
@@ -10781,13 +10781,13 @@
     </row>
     <row r="96" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E96" t="s">
         <v>301</v>
       </c>
       <c r="F96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -10849,22 +10849,22 @@
     </row>
     <row r="97" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E97" t="s">
         <v>301</v>
       </c>
       <c r="F97" t="s">
+        <v>362</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="X97" t="s">
         <v>363</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="X97" t="s">
-        <v>364</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -10917,28 +10917,28 @@
     </row>
     <row r="98" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E98" t="s">
         <v>301</v>
       </c>
       <c r="F98" t="s">
+        <v>365</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="AD98" t="s">
         <v>366</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-      <c r="AD98" t="s">
-        <v>367</v>
       </c>
       <c r="AE98">
         <v>0.45</v>
@@ -10997,28 +10997,28 @@
     </row>
     <row r="99" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E99" t="s">
         <v>301</v>
       </c>
       <c r="F99" t="s">
+        <v>368</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="AD99" t="s">
         <v>369</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-      <c r="AD99" t="s">
-        <v>370</v>
       </c>
       <c r="AE99">
         <v>0.45</v>
@@ -11077,28 +11077,28 @@
     </row>
     <row r="100" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E100" t="s">
         <v>301</v>
       </c>
       <c r="F100" t="s">
+        <v>371</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100" t="s">
         <v>372</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-      <c r="X100" t="s">
-        <v>373</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -11151,13 +11151,13 @@
     </row>
     <row r="101" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E101" t="s">
         <v>301</v>
       </c>
       <c r="F101" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="X101" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -11225,13 +11225,13 @@
     </row>
     <row r="102" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E102" t="s">
         <v>301</v>
       </c>
       <c r="F102" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="X102" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -11299,13 +11299,13 @@
     </row>
     <row r="103" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E103" t="s">
         <v>301</v>
       </c>
       <c r="F103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="X103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -11373,13 +11373,13 @@
     </row>
     <row r="104" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E104" t="s">
         <v>301</v>
       </c>
       <c r="F104" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -11444,28 +11444,28 @@
     </row>
     <row r="105" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E105" t="s">
         <v>301</v>
       </c>
       <c r="F105" t="s">
+        <v>382</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105" t="s">
         <v>383</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-      <c r="X105" t="s">
-        <v>384</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -11518,28 +11518,28 @@
     </row>
     <row r="106" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E106" t="s">
         <v>301</v>
       </c>
       <c r="F106" t="s">
+        <v>385</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106" t="s">
         <v>386</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-      <c r="X106" t="s">
-        <v>387</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -11592,19 +11592,19 @@
     </row>
     <row r="107" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E107" t="s">
         <v>301</v>
       </c>
       <c r="F107" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z107">
         <v>1</v>
       </c>
       <c r="AD107" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE107">
         <v>0.15</v>
@@ -11663,19 +11663,19 @@
     </row>
     <row r="108" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E108" t="s">
         <v>301</v>
       </c>
       <c r="F108" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z108">
         <v>1</v>
       </c>
       <c r="AD108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AE108">
         <v>0.15</v>
@@ -11734,16 +11734,16 @@
     </row>
     <row r="109" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E109" t="s">
         <v>301</v>
       </c>
       <c r="F109" t="s">
+        <v>392</v>
+      </c>
+      <c r="X109" t="s">
         <v>393</v>
-      </c>
-      <c r="X109" t="s">
-        <v>394</v>
       </c>
       <c r="Z109">
         <v>1</v>
@@ -11799,19 +11799,19 @@
     </row>
     <row r="110" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E110" t="s">
         <v>301</v>
       </c>
       <c r="F110" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Z110">
         <v>1</v>
       </c>
       <c r="AD110" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AE110">
         <v>0.15</v>
@@ -11870,19 +11870,19 @@
     </row>
     <row r="111" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E111" t="s">
         <v>301</v>
       </c>
       <c r="F111" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z111">
         <v>1</v>
       </c>
       <c r="AD111" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AE111">
         <v>0.15</v>
@@ -11941,19 +11941,19 @@
     </row>
     <row r="112" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E112" t="s">
         <v>301</v>
       </c>
       <c r="F112" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Z112">
         <v>1</v>
       </c>
       <c r="AD112" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE112">
         <v>0.15</v>
@@ -12012,19 +12012,19 @@
     </row>
     <row r="113" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E113" t="s">
         <v>301</v>
       </c>
       <c r="F113" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Z113">
         <v>1</v>
       </c>
       <c r="AD113" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AE113">
         <v>0.15</v>
@@ -12083,39 +12083,39 @@
     </row>
     <row r="114" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E114" t="s">
         <v>301</v>
       </c>
       <c r="F114" t="s">
+        <v>437</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114" t="s">
         <v>438</v>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-      <c r="V114">
-        <v>0</v>
-      </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-      <c r="X114" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="115" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E115" t="s">
         <v>301</v>
       </c>
       <c r="F115" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -12132,13 +12132,13 @@
     </row>
     <row r="116" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E116" t="s">
         <v>301</v>
       </c>
       <c r="F116" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -12203,13 +12203,13 @@
     </row>
     <row r="117" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E117" t="s">
         <v>301</v>
       </c>
       <c r="F117" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -12274,28 +12274,28 @@
     </row>
     <row r="118" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E118" t="s">
         <v>301</v>
       </c>
       <c r="F118" t="s">
+        <v>430</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118" t="s">
         <v>431</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="V118">
-        <v>0</v>
-      </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-      <c r="X118" t="s">
-        <v>432</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -12348,13 +12348,13 @@
     </row>
     <row r="119" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E119" t="s">
         <v>301</v>
       </c>
       <c r="F119" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -12417,18 +12417,18 @@
         <v>0</v>
       </c>
       <c r="BD119" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E120" t="s">
         <v>301</v>
       </c>
       <c r="F120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -12496,13 +12496,13 @@
     </row>
     <row r="121" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E121" t="s">
         <v>301</v>
       </c>
       <c r="F121" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -12567,13 +12567,13 @@
     </row>
     <row r="122" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E122" t="s">
         <v>301</v>
       </c>
       <c r="F122" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -12641,28 +12641,28 @@
     </row>
     <row r="123" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E123" t="s">
         <v>301</v>
       </c>
       <c r="F123" t="s">
+        <v>419</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123" t="s">
         <v>420</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="V123">
-        <v>0</v>
-      </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-      <c r="X123" t="s">
-        <v>421</v>
       </c>
       <c r="AF123">
         <v>0</v>
@@ -12706,102 +12706,102 @@
     </row>
     <row r="124" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E124" t="s">
         <v>301</v>
       </c>
       <c r="F124" t="s">
+        <v>417</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <v>0</v>
+      </c>
+      <c r="AR124">
+        <v>0</v>
+      </c>
+      <c r="AT124">
+        <v>0</v>
+      </c>
+      <c r="AU124">
+        <v>0</v>
+      </c>
+      <c r="AW124">
+        <v>0</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>0</v>
+      </c>
+      <c r="BD124" t="s">
         <v>418</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="V124">
-        <v>0</v>
-      </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-      <c r="AF124">
-        <v>0</v>
-      </c>
-      <c r="AG124">
-        <v>0</v>
-      </c>
-      <c r="AH124">
-        <v>0</v>
-      </c>
-      <c r="AI124">
-        <v>0</v>
-      </c>
-      <c r="AJ124">
-        <v>0</v>
-      </c>
-      <c r="AO124">
-        <v>0</v>
-      </c>
-      <c r="AR124">
-        <v>0</v>
-      </c>
-      <c r="AT124">
-        <v>0</v>
-      </c>
-      <c r="AU124">
-        <v>0</v>
-      </c>
-      <c r="AW124">
-        <v>0</v>
-      </c>
-      <c r="AX124">
-        <v>0</v>
-      </c>
-      <c r="AY124">
-        <v>0</v>
-      </c>
-      <c r="AZ124">
-        <v>0</v>
-      </c>
-      <c r="BA124">
-        <v>0</v>
-      </c>
-      <c r="BB124">
-        <v>0</v>
-      </c>
-      <c r="BC124">
-        <v>0</v>
-      </c>
-      <c r="BD124" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="125" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E125" t="s">
         <v>301</v>
       </c>
       <c r="F125" t="s">
+        <v>414</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="AD125" t="s">
         <v>415</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-      <c r="V125">
-        <v>0</v>
-      </c>
-      <c r="W125">
-        <v>0</v>
-      </c>
-      <c r="AD125" t="s">
-        <v>416</v>
       </c>
       <c r="AE125">
         <v>0.25</v>
@@ -12863,28 +12863,28 @@
     </row>
     <row r="126" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E126" t="s">
         <v>301</v>
       </c>
       <c r="F126" t="s">
+        <v>411</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="AD126" t="s">
         <v>412</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-      <c r="V126">
-        <v>0</v>
-      </c>
-      <c r="W126">
-        <v>0</v>
-      </c>
-      <c r="AD126" t="s">
-        <v>413</v>
       </c>
       <c r="AE126">
         <v>0.75</v>
@@ -12946,13 +12946,13 @@
     </row>
     <row r="127" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E127" t="s">
         <v>301</v>
       </c>
       <c r="F127" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -13017,28 +13017,28 @@
     </row>
     <row r="128" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E128" t="s">
         <v>301</v>
       </c>
       <c r="F128" t="s">
+        <v>406</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="AD128" t="s">
         <v>407</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
-      </c>
-      <c r="V128">
-        <v>0</v>
-      </c>
-      <c r="W128">
-        <v>0</v>
-      </c>
-      <c r="AD128" t="s">
-        <v>408</v>
       </c>
       <c r="AE128">
         <v>0.75</v>
@@ -13097,28 +13097,28 @@
     </row>
     <row r="129" spans="3:56" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E129" t="s">
         <v>301</v>
       </c>
       <c r="F129" t="s">
+        <v>403</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129" t="s">
         <v>404</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-      <c r="V129">
-        <v>0</v>
-      </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-      <c r="X129" t="s">
-        <v>405</v>
       </c>
       <c r="AF129">
         <v>0</v>

--- a/resources/data-imports/items-second-set.xlsx
+++ b/resources/data-imports/items-second-set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A855B028-1601-1A4F-9E97-16EF865EA42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CAB2B2-77A8-DD48-BC31-A3C2A993AD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1278,9 +1278,6 @@
     <t>A simple bag of child's bones. You can give these to Shade Lord for an item.</t>
   </si>
   <si>
-    <t>Lust for Gold</t>
-  </si>
-  <si>
     <t>Purse of Shards and Dust</t>
   </si>
   <si>
@@ -1360,6 +1357,9 @@
   </si>
   <si>
     <t>River Styx Sandals</t>
+  </si>
+  <si>
+    <t>Kingmanship</t>
   </si>
 </sst>
 </file>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT134" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView tabSelected="1" topLeftCell="T83" workbookViewId="0">
+      <selection activeCell="AD125" sqref="AD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="85" spans="4:55" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E85" t="s">
         <v>301</v>
@@ -12083,39 +12083,39 @@
     </row>
     <row r="114" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E114" t="s">
         <v>301</v>
       </c>
       <c r="F114" t="s">
+        <v>436</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114" t="s">
         <v>437</v>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-      <c r="V114">
-        <v>0</v>
-      </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-      <c r="X114" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="115" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E115" t="s">
         <v>301</v>
       </c>
       <c r="F115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -12132,13 +12132,13 @@
     </row>
     <row r="116" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E116" t="s">
         <v>301</v>
       </c>
       <c r="F116" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -12203,13 +12203,13 @@
     </row>
     <row r="117" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E117" t="s">
         <v>301</v>
       </c>
       <c r="F117" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -12274,28 +12274,28 @@
     </row>
     <row r="118" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E118" t="s">
         <v>301</v>
       </c>
       <c r="F118" t="s">
+        <v>429</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118" t="s">
         <v>430</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="V118">
-        <v>0</v>
-      </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-      <c r="X118" t="s">
-        <v>431</v>
       </c>
       <c r="AF118">
         <v>0</v>
@@ -12348,13 +12348,13 @@
     </row>
     <row r="119" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E119" t="s">
         <v>301</v>
       </c>
       <c r="F119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -12417,18 +12417,18 @@
         <v>0</v>
       </c>
       <c r="BD119" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E120" t="s">
         <v>301</v>
       </c>
       <c r="F120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -12496,13 +12496,13 @@
     </row>
     <row r="121" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E121" t="s">
         <v>301</v>
       </c>
       <c r="F121" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -12567,13 +12567,13 @@
     </row>
     <row r="122" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E122" t="s">
         <v>301</v>
       </c>
       <c r="F122" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -12641,28 +12641,28 @@
     </row>
     <row r="123" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E123" t="s">
         <v>301</v>
       </c>
       <c r="F123" t="s">
+        <v>418</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123" t="s">
         <v>419</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="V123">
-        <v>0</v>
-      </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-      <c r="X123" t="s">
-        <v>420</v>
       </c>
       <c r="AF123">
         <v>0</v>
@@ -12706,76 +12706,76 @@
     </row>
     <row r="124" spans="4:56" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E124" t="s">
         <v>301</v>
       </c>
       <c r="F124" t="s">
+        <v>416</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <v>0</v>
+      </c>
+      <c r="AR124">
+        <v>0</v>
+      </c>
+      <c r="AT124">
+        <v>0</v>
+      </c>
+      <c r="AU124">
+        <v>0</v>
+      </c>
+      <c r="AW124">
+        <v>0</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>0</v>
+      </c>
+      <c r="BD124" t="s">
         <v>417</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="V124">
-        <v>0</v>
-      </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-      <c r="AF124">
-        <v>0</v>
-      </c>
-      <c r="AG124">
-        <v>0</v>
-      </c>
-      <c r="AH124">
-        <v>0</v>
-      </c>
-      <c r="AI124">
-        <v>0</v>
-      </c>
-      <c r="AJ124">
-        <v>0</v>
-      </c>
-      <c r="AO124">
-        <v>0</v>
-      </c>
-      <c r="AR124">
-        <v>0</v>
-      </c>
-      <c r="AT124">
-        <v>0</v>
-      </c>
-      <c r="AU124">
-        <v>0</v>
-      </c>
-      <c r="AW124">
-        <v>0</v>
-      </c>
-      <c r="AX124">
-        <v>0</v>
-      </c>
-      <c r="AY124">
-        <v>0</v>
-      </c>
-      <c r="AZ124">
-        <v>0</v>
-      </c>
-      <c r="BA124">
-        <v>0</v>
-      </c>
-      <c r="BB124">
-        <v>0</v>
-      </c>
-      <c r="BC124">
-        <v>0</v>
-      </c>
-      <c r="BD124" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="125" spans="4:56" x14ac:dyDescent="0.2">
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="AD125" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="AE125">
         <v>0.25</v>

--- a/resources/data-imports/items-second-set.xlsx
+++ b/resources/data-imports/items-second-set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CAB2B2-77A8-DD48-BC31-A3C2A993AD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976C5CEE-D30F-6442-A6B4-C29FDBD2978C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T83" workbookViewId="0">
-      <selection activeCell="AD125" sqref="AD125"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="BD128" sqref="BD128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11220,7 +11220,7 @@
         <v>0.5</v>
       </c>
       <c r="BC101">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="102" spans="4:55" x14ac:dyDescent="0.2">
@@ -11294,7 +11294,7 @@
         <v>0.75</v>
       </c>
       <c r="BC102">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="4:55" x14ac:dyDescent="0.2">
@@ -11368,7 +11368,7 @@
         <v>1</v>
       </c>
       <c r="BC103">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="4:55" x14ac:dyDescent="0.2">
@@ -13089,10 +13089,10 @@
         <v>0</v>
       </c>
       <c r="BB128">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BC128">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="129" spans="3:56" x14ac:dyDescent="0.2">
@@ -13163,10 +13163,10 @@
         <v>0</v>
       </c>
       <c r="BB129">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="BC129">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="130" spans="3:56" x14ac:dyDescent="0.2">
